--- a/medicine/Enfance/George_Harrar/George_Harrar.xlsx
+++ b/medicine/Enfance/George_Harrar/George_Harrar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">George Harrar, né le 25 juillet 1949 à Jenkintown, en Pennsylvanie, est un journaliste, romancier, nouvelliste américain, auteur de roman policier et de littérature d'enfance et de jeunesse[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">George Harrar, né le 25 juillet 1949 à Jenkintown, en Pennsylvanie, est un journaliste, romancier, nouvelliste américain, auteur de roman policier et de littérature d'enfance et de jeunesse.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il grandit à Jenkintown, en Pennsylvanie. Il complète des études supérieures à l'Université de New York et obtient son baccalauréat avec mention honorifique. Il travaille ensuite comme reporter et rédacteur pendant plusieurs années pour divers journaux et magazines[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il grandit à Jenkintown, en Pennsylvanie. Il complète des études supérieures à l'Université de New York et obtient son baccalauréat avec mention honorifique. Il travaille ensuite comme reporter et rédacteur pendant plusieurs années pour divers journaux et magazines.
 Dès 1989, il se lance dans l'écriture d'ouvrages de littérature d'enfance et de jeunesse. En 2001, il fait paraître Parents Wanted, un roman en partie autobiographique qui raconte les difficultés que rencontrent des parents à élever leur fils. Ce récit remporte le Milkweed Prize for Children's Literature.
 À la fin des années 1990, après avoir remporté un concours de nouvelles, il entreprend d'en écrire sur une base régulière et parvient à en faire paraître avec succès dans diverses publications. En 1998, la nouvelle The 5:22 remporte le Story Magazine’s Carson McCullers Prize.
 En 1999, il donne son premier roman avec First Tiger, qui décrit les relations conflictuelles entre un jeune délinquant et son père, un vétéran dépressif de la guerre du Viêt Nam.
@@ -549,56 +563,165 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-First Tiger (1999)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>First Tiger (1999)
 The Spinning Man (2003) Publié en français sous le titre L'Homme-toupie, traduit par Marie-Lise Marlière, Paris, Gallimard, Série noire, 2006  (ISBN 2-07-074343-8)
-Reunion at Red Paint Bay (2013) Publié en français sous le titre Red Paint Bay, traduit par Thomas Bauduret, Neuilly-sur-Seine, M. Lafon, 2013  (ISBN 978-2-7499-2081-8)
-Ouvrages de littérature d'enfance et de jeunesse
-Signs of the Apes, Songs of the Whales: Adventures in Human-Animal Communication (1989)
+Reunion at Red Paint Bay (2013) Publié en français sous le titre Red Paint Bay, traduit par Thomas Bauduret, Neuilly-sur-Seine, M. Lafon, 2013  (ISBN 978-2-7499-2081-8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>George_Harrar</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/George_Harrar</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Signs of the Apes, Songs of the Whales: Adventures in Human-Animal Communication (1989)
 Radical Robots: Can You Be Replaced? (1990)
 Parents Wanted (2001)
 The Trouble with Jeremy Chance (2003)
 Not As Crazy As I Seem (2003)
-The Wonder Kid (2006)
-Nouvelles
-Sunset in Ithaca (1998)
+The Wonder Kid (2006)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>George_Harrar</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/George_Harrar</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Sunset in Ithaca (1998)
 The 5:22 (1998)
 A Perfect Reputation (1998)
 The Lake Region Poetry Club (1998)
 Standing Up (1999)
 Gentle Breezes (2001)
 The River Ocean (2011)
-The Surprise Hit of an Otherwise Lackluster Season (2011)
-Autres publications
-The Ultimate Entrepreneur: The Story of Ken Olsen and Digital Equipment Corporation (1988), en collaboration avec Glenn Rifkin</t>
+The Surprise Hit of an Otherwise Lackluster Season (2011)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>George_Harrar</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/George_Harrar</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>The Ultimate Entrepreneur: The Story of Ken Olsen and Digital Equipment Corporation (1988), en collaboration avec Glenn Rifkin</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>George_Harrar</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/George_Harrar</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Story Magazine’s Carson McCullers Prize 1998 pour la nouvelle The 5:22
 Milkweed Prize for Children's Literature 2001 pour Parents Wanted</t>
